--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1147605.757549372</v>
+        <v>1145348.735640289</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>114.0138441087954</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>118.5270090529453</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.80367750265275</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>83.59830597394826</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>172.8861799252941</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>26.40868448976566</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>65.11360015189868</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>82.92375604299512</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>180.2484107694636</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>124.5226615100433</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>99.54252204359044</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873211</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492546</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>112.6153672577956</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.709655389035</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734111903</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>120.4263234899704</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>193.7989719911868</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>11.03304066191143</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>28.74476143305955</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249711</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>96.98176140267726</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2296,16 +2296,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>17.25588147840183</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>109.3235974497385</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>113.5103646250812</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>38.51892711226787</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2770,7 +2770,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>106.7082616683669</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,19 +2998,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>121.7653892614119</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,19 +3187,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>69.81472657146826</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3427,10 +3427,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>91.4896202274966</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259153</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143261</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164183</v>
+        <v>87.87589738164189</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>188.7127700430364</v>
       </c>
       <c r="T37" t="n">
-        <v>114.3224521527861</v>
+        <v>218.4926939877637</v>
       </c>
       <c r="U37" t="n">
         <v>285.1555829172074</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797668</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124481</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797668</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124425</v>
+        <v>49.37728379124542</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797668</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572828</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1095.807382993971</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="C2" t="n">
-        <v>726.8448660535598</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>726.8448660535598</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>341.0566134553156</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>1859.412473230863</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.946714969783</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y2" t="n">
-        <v>1095.807382993971</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1759.555763042629</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C5" t="n">
-        <v>1390.593246102217</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>1032.327547495466</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>646.5392948972221</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656313</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>2063.943211507648</v>
       </c>
       <c r="X5" t="n">
-        <v>1759.555763042629</v>
+        <v>1690.477453246569</v>
       </c>
       <c r="Y5" t="n">
-        <v>1759.555763042629</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4662,7 +4662,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>315.487458950312</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>165.3708195379762</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782189</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2090.618650386199</v>
+        <v>1095.807382993972</v>
       </c>
       <c r="C8" t="n">
-        <v>1721.656133445787</v>
+        <v>1095.807382993972</v>
       </c>
       <c r="D8" t="n">
-        <v>1721.656133445787</v>
+        <v>737.5416843872215</v>
       </c>
       <c r="E8" t="n">
-        <v>1335.867880847543</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>924.8819760579356</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>506.9181679561225</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>179.7234479921253</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656313</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656313</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.618650386199</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X8" t="n">
-        <v>2090.618650386199</v>
+        <v>1485.946714969784</v>
       </c>
       <c r="Y8" t="n">
-        <v>2090.618650386199</v>
+        <v>1095.807382993972</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.8558756644251</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>370.8558756644251</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644251</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286579</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286579</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>471.4038777286579</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>370.8558756644251</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.8558756644251</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5045,22 +5045,22 @@
         <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1236.699401366028</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M11" t="n">
-        <v>2215.249704195857</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>3195.001976422504</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>3697.97444730184</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,22 +5148,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.1131475839754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5197,13 +5197,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953301</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U13" t="n">
-        <v>1385.724257814702</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1271.971361594706</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="W13" t="n">
-        <v>982.5541915577453</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X13" t="n">
-        <v>982.5541915577453</v>
+        <v>391.8664332433644</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.7616124142152</v>
+        <v>171.0738540998343</v>
       </c>
     </row>
     <row r="14">
@@ -5264,49 +5264,49 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074201</v>
+        <v>323.52854882937</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972667</v>
+        <v>657.3479225192164</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750622</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807097</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
-        <v>3944.053400686435</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604873</v>
@@ -5331,70 +5331,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549554</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282341</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1523.103642431788</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1523.103642431788</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W16" t="n">
-        <v>1523.103642431788</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X16" t="n">
-        <v>1523.103642431788</v>
+        <v>424.0994467765445</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>424.0994467765445</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5516,25 +5516,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1390.197710791128</v>
+        <v>1465.885462454824</v>
       </c>
       <c r="M17" t="n">
-        <v>1923.729615463053</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5592,13 +5592,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5613,7 +5613,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,7 +5622,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447819</v>
@@ -5631,7 +5631,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.9597618327374</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C19" t="n">
-        <v>784.0235789048305</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D19" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5686,7 +5686,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5695,7 +5695,7 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
         <v>1674.827124689058</v>
@@ -5704,19 +5704,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1453.060509258584</v>
+        <v>1152.813156867145</v>
       </c>
       <c r="W19" t="n">
-        <v>1163.643339221623</v>
+        <v>863.3959868301845</v>
       </c>
       <c r="X19" t="n">
-        <v>1134.608226662977</v>
+        <v>635.4064359321671</v>
       </c>
       <c r="Y19" t="n">
-        <v>1134.608226662977</v>
+        <v>414.6138567886371</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,28 +5750,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2016.310259422546</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N20" t="n">
-        <v>2996.062531649192</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.393206660291</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5805,64 +5805,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>876.4469737784535</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>707.5107908505468</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>557.3941514382109</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5911,10 +5911,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892252</v>
@@ -5935,25 +5935,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1858.382090950484</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1636.61547552001</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1347.512608645654</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V22" t="n">
-        <v>1347.512608645654</v>
+        <v>999.1036114208127</v>
       </c>
       <c r="W22" t="n">
-        <v>1058.095438608693</v>
+        <v>709.6864413838522</v>
       </c>
       <c r="X22" t="n">
-        <v>1058.095438608693</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>1058.095438608693</v>
+        <v>260.9043113423047</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5987,46 +5987,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1586.925993846824</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2120.457898518748</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.236715577531</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906985</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
         <v>1715.000032008795</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,7 +6096,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
         <v>2043.809373447819</v>
@@ -6105,7 +6105,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>521.8150410860687</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C25" t="n">
-        <v>352.8788581581618</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D25" t="n">
-        <v>352.8788581581618</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6151,7 +6151,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6175,22 +6175,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1475.554715057173</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1220.870226851286</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W25" t="n">
-        <v>931.4530568143258</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X25" t="n">
-        <v>703.4635059163085</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="Y25" t="n">
-        <v>703.4635059163085</v>
+        <v>260.9043113423045</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6227,25 +6227,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1971.087962216427</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M26" t="n">
-        <v>2649.230460361821</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>3163.468180669545</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3666.440651548882</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6306,49 +6306,49 @@
         <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.5107908505465</v>
+        <v>210.2179684131229</v>
       </c>
       <c r="C28" t="n">
-        <v>707.5107908505465</v>
+        <v>210.2179684131229</v>
       </c>
       <c r="D28" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6388,10 +6388,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1917.435458920595</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1695.668843490121</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1406.565976615764</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1406.565976615764</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W28" t="n">
-        <v>1117.148806578803</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X28" t="n">
-        <v>889.1592556807863</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.1592556807863</v>
+        <v>391.8664332433626</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6464,49 +6464,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L29" t="n">
-        <v>1069.293752345675</v>
+        <v>1664.03236021809</v>
       </c>
       <c r="M29" t="n">
-        <v>2047.844055175504</v>
+        <v>2642.582663047919</v>
       </c>
       <c r="N29" t="n">
-        <v>3027.596327402151</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O29" t="n">
-        <v>3865.782086996753</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6516,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142067</v>
@@ -6570,16 +6570,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U30" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282341</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.6930623898351</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C31" t="n">
-        <v>741.6930623898351</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D31" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1734.57685067423</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1479.892362468343</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W31" t="n">
-        <v>1190.475192431383</v>
+        <v>876.1082687325173</v>
       </c>
       <c r="X31" t="n">
-        <v>962.4856415333652</v>
+        <v>648.1187178345</v>
       </c>
       <c r="Y31" t="n">
-        <v>741.6930623898351</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1364.144379432265</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>1897.67628410419</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N32" t="n">
-        <v>2877.428556330836</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>481.6968904858345</v>
+        <v>171.0738540998323</v>
       </c>
       <c r="C34" t="n">
-        <v>481.6968904858345</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>481.6968904858345</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>333.7837969034414</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6862,7 +6862,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6871,37 +6871,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838518</v>
+        <v>619.8559841413797</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858345</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="Y34" t="n">
-        <v>481.6968904858345</v>
+        <v>171.0738540998323</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6941,22 +6941,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3499.035002528529</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4212.390089975475</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7014,13 +7014,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,7 +7044,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7053,7 +7053,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>483.8162183933557</v>
+        <v>187.9747922539465</v>
       </c>
       <c r="C37" t="n">
-        <v>483.8162183933557</v>
+        <v>187.9747922539465</v>
       </c>
       <c r="D37" t="n">
-        <v>483.8162183933557</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>336.9700493447054</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>336.9700493447054</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>336.9700493447054</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>191.8197870963062</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308514</v>
+        <v>141.7293596308513</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152493</v>
+        <v>346.7622353152491</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992667</v>
+        <v>664.3677264992666</v>
       </c>
       <c r="M37" t="n">
         <v>1009.570464834337</v>
@@ -7111,34 +7111,34 @@
         <v>1652.399825931658</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100839</v>
+        <v>1886.053019100838</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988875</v>
+        <v>1964.709007988874</v>
       </c>
       <c r="R37" t="n">
-        <v>1875.945475280146</v>
+        <v>1875.945475280145</v>
       </c>
       <c r="S37" t="n">
-        <v>1875.945475280146</v>
+        <v>1685.326515640714</v>
       </c>
       <c r="T37" t="n">
-        <v>1760.468250883392</v>
+        <v>1464.626824743983</v>
       </c>
       <c r="U37" t="n">
-        <v>1472.432308542779</v>
+        <v>1176.59088240337</v>
       </c>
       <c r="V37" t="n">
-        <v>1218.814744870635</v>
+        <v>922.973318731226</v>
       </c>
       <c r="W37" t="n">
-        <v>930.4644993674173</v>
+        <v>634.6230732280083</v>
       </c>
       <c r="X37" t="n">
-        <v>703.5418730031429</v>
+        <v>407.7004468637338</v>
       </c>
       <c r="Y37" t="n">
-        <v>483.8162183933557</v>
+        <v>187.9747922539465</v>
       </c>
     </row>
     <row r="38">
@@ -7151,43 +7151,43 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1676.077303208129</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M38" t="n">
-        <v>2209.609207880054</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N38" t="n">
-        <v>3189.361480106701</v>
+        <v>3027.59632740215</v>
       </c>
       <c r="O38" t="n">
-        <v>3692.333950986038</v>
+        <v>3907.560977731604</v>
       </c>
       <c r="P38" t="n">
         <v>4405.689038432984</v>
@@ -7199,19 +7199,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7272,7 +7272,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7281,7 +7281,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
         <v>2043.809373447819</v>
@@ -7290,7 +7290,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774088</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E40" t="n">
-        <v>463.898150743089</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932519</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160441</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H40" t="n">
-        <v>145.437078681975</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="41">
@@ -7391,19 +7391,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7412,25 +7412,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>741.1020862043861</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1605.620901857741</v>
       </c>
       <c r="M41" t="n">
-        <v>2593.249184644075</v>
+        <v>2584.171204687569</v>
       </c>
       <c r="N41" t="n">
-        <v>3573.001456870722</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7506,22 +7506,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215045</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416708</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774083</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430885</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932514</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160436</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819745</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477365</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7597,13 +7597,13 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
         <v>1276.596863849072</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.713999703671</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7637,37 +7637,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>972.9616805754476</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1837.480496228803</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2816.030799058632</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N44" t="n">
-        <v>3362.809616117414</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O44" t="n">
-        <v>3865.782086996752</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.55645335393</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7701,52 +7701,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
         <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,22 +7755,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215058</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C46" t="n">
         <v>667.028617841672</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K46" t="n">
         <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499226</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
         <v>2328.386548123957</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
         <v>2141.769472604458</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036722</v>
+        <v>922.713999703672</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.017475755656733</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,16 +8702,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>316.1012371454192</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>39.48321557772746</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,22 +8933,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>133.2530576400231</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-1.426747608945789e-12</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,28 +9164,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>400.5976869789382</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>411.0304280899003</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>216.9877583263337</v>
       </c>
       <c r="O20" t="n">
-        <v>260.9678829613756</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>198.7154374299952</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>103.7862464855134</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,28 +9875,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>146.0713065388582</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>135.6385654278964</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,28 +10112,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>276.6006559868306</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>338.5992815305709</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>128.7323010770068</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>76.45227440777364</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,25 +10589,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>195.2514630883921</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,25 +10820,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>119.6706498956038</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>104.3976710547487</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>124.0833809162827</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>258.6211785616931</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>189.1883762200281</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>136.2499899971297</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.0742887270118</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>139.5222760660324</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>165.7855147156425</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>31.91068339785036</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>241.1046026619166</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>196.9648939559776</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696619</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24175,7 +24175,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>92.78726392876463</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>162.5760987035355</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>37.11036519683066</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24604,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>35.10510839313112</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>151.250098219174</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>41.9072113498455</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>164.7576090751791</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,19 +25075,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370432</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>75.60632145146299</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298069</v>
+        <v>56.0695975023103</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581637</v>
       </c>
       <c r="F37" t="n">
         <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706227</v>
+        <v>164.9695529706228</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>143.6987596259153</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>95.29616512143264</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430364</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>104.1702418349776</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>970351.8669182697</v>
+        <v>970351.8669182698</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>970351.8669182699</v>
+        <v>970351.8669182697</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>970351.8669182698</v>
+        <v>970351.8669182699</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>970351.8669182697</v>
+        <v>970351.8669182698</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>970351.8669182699</v>
+        <v>970351.8669182698</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>970351.8669182699</v>
+        <v>970351.8669182698</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>971077.1076853686</v>
+        <v>971077.1076853687</v>
       </c>
     </row>
     <row r="14">
@@ -26317,43 +26317,43 @@
         <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
+        <v>436789.9655756815</v>
+      </c>
+      <c r="F2" t="n">
         <v>436789.9655756814</v>
-      </c>
-      <c r="F2" t="n">
-        <v>436789.9655756813</v>
       </c>
       <c r="G2" t="n">
         <v>436789.9655756814</v>
       </c>
       <c r="H2" t="n">
-        <v>436789.9655756814</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="I2" t="n">
-        <v>436789.9655756814</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="J2" t="n">
         <v>436789.9655756814</v>
       </c>
       <c r="K2" t="n">
+        <v>436789.9655756815</v>
+      </c>
+      <c r="L2" t="n">
         <v>436789.9655756814</v>
-      </c>
-      <c r="L2" t="n">
-        <v>436789.9655756813</v>
       </c>
       <c r="M2" t="n">
         <v>437122.3675939348</v>
       </c>
       <c r="N2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253562</v>
       </c>
       <c r="O2" t="n">
         <v>451572.9734253561</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.973425356</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696692</v>
+        <v>130487.3190696691</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.1050641496</v>
+        <v>36735.1050641497</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="G4" t="n">
         <v>18148.49231918991</v>
       </c>
-      <c r="G4" t="n">
-        <v>18148.49231918994</v>
-      </c>
       <c r="H4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811458</v>
+        <v>18496.05294811456</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740891</v>
+        <v>33605.653297409</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740894</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26494,7 +26494,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404602.6707097259</v>
+        <v>-404602.6707097261</v>
       </c>
       <c r="C6" t="n">
-        <v>185365.2085048185</v>
+        <v>185365.2085048186</v>
       </c>
       <c r="D6" t="n">
-        <v>185365.2085048185</v>
+        <v>185365.2085048184</v>
       </c>
       <c r="E6" t="n">
-        <v>-405119.4589906291</v>
+        <v>-405186.6544808545</v>
       </c>
       <c r="F6" t="n">
-        <v>322257.9550027773</v>
+        <v>322190.7595125519</v>
       </c>
       <c r="G6" t="n">
-        <v>322257.9550027782</v>
+        <v>322190.7595125519</v>
       </c>
       <c r="H6" t="n">
-        <v>322257.9550027777</v>
+        <v>322190.7595125521</v>
       </c>
       <c r="I6" t="n">
-        <v>322257.9550027777</v>
+        <v>322190.7595125521</v>
       </c>
       <c r="J6" t="n">
-        <v>145834.7358101849</v>
+        <v>145767.5403199591</v>
       </c>
       <c r="K6" t="n">
-        <v>322257.9550027778</v>
+        <v>322190.7595125523</v>
       </c>
       <c r="L6" t="n">
-        <v>322257.9550027777</v>
+        <v>322190.7595125519</v>
       </c>
       <c r="M6" t="n">
-        <v>191666.6789965963</v>
+        <v>191600.9944246355</v>
       </c>
       <c r="N6" t="n">
         <v>280899.5440496954</v>
       </c>
       <c r="O6" t="n">
-        <v>317634.6491138452</v>
+        <v>317634.649113845</v>
       </c>
       <c r="P6" t="n">
-        <v>317634.6491138446</v>
+        <v>317634.6491138447</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26771,13 +26771,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018699</v>
+        <v>45.91888133018713</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>251.2590476622121</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>288.3490366887661</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.02830267928455</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6835682680295</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>233.9898658164173</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>28.06971808504605</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>81.32036249467049</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>142.1113494150891</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>201.6819593027982</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>27.40865473481797</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>83.12091415361547</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>126.1671333454467</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.110667527536862e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>2.182787284255028e-12</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405448</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-1.094235813070554e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837912</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>456.6075901479889</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35422,16 +35422,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>714.8632233647911</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>230.27021654644</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427828</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230595</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248959</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882195</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>532.0150438593952</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037197</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222489</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306628</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>856.1878013712703</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>963.3322635028118</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>769.2895937392452</v>
       </c>
       <c r="O20" t="n">
-        <v>769.0208838495947</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>654.3055518223274</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>611.8392473737325</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
@@ -36595,28 +36595,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>684.9924223690849</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>534.4005516472682</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
         <v>347.6333793934838</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>732.1907703791626</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>846.65228241879</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>584.3224154693389</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>615.3733902380004</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>446.0457678921116</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147172</v>
+        <v>46.63467190147168</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327251</v>
+        <v>207.103914832725</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586036</v>
+        <v>320.8136274586035</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818893</v>
+        <v>348.6896346818892</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559456</v>
+        <v>345.9132014559455</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110453</v>
+        <v>303.4093855110452</v>
       </c>
       <c r="P37" t="n">
         <v>236.0133264335159</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629915</v>
+        <v>79.45049382629908</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>575.2607642879361</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302269</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908547</v>
+        <v>503.1596572741203</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,16 +37707,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>461.2746674716831</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>797.5422943919199</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
         <v>394.6085160120763</v>
@@ -37956,7 +37956,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>526.3796627754289</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427828</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230595</v>
+        <v>675.1711058273564</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882195</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222489</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.306104600458</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
